--- a/plugin/data/ai-panda-team.xlsx
+++ b/plugin/data/ai-panda-team.xlsx
@@ -783,7 +783,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://files.catbox.moe/3zpxbt.png</t>
+          <t>https://0x0.st/PuWR.png</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://files.catbox.moe/hj7s40.png</t>
+          <t>https://0x0.st/PuW7.png</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://files.catbox.moe/vcp4cq.png</t>
+          <t>https://0x0.st/PuWh.png</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
